--- a/graficos_excel.xlsx
+++ b/graficos_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\image_clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C62E11-6393-4283-920B-C32B09268719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B32C2FD-8944-4C4E-9AF5-FEC62DA39A87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CC605A14-2A49-4EF3-9CD9-1D6967F46A4D}"/>
   </bookViews>
@@ -27,18 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>x_calc</t>
-  </si>
-  <si>
     <t>y_analtico</t>
-  </si>
-  <si>
-    <t>y_clusterizado</t>
   </si>
   <si>
     <t>x^3</t>
@@ -56,7 +50,31 @@
     <t>Serie_3</t>
   </si>
   <si>
-    <t>Serie_4</t>
+    <t>Serie_1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Clusterizado</t>
+  </si>
+  <si>
+    <t>f2(x)</t>
+  </si>
+  <si>
+    <t>f3(x)</t>
+  </si>
+  <si>
+    <t>f1(x)</t>
+  </si>
+  <si>
+    <t>Cluster Serie_1</t>
+  </si>
+  <si>
+    <t>Cluster Serie_2</t>
+  </si>
+  <si>
+    <t>Cluster Serie_3</t>
   </si>
 </sst>
 </file>
@@ -125,39 +143,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10672919440549553"/>
+          <c:y val="7.3828195394748317E-2"/>
+          <c:w val="0.57630848719791683"/>
+          <c:h val="0.77047305535106447"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -338,7 +336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>y_clusterizado</c:v>
+                  <c:v>Clusterizado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -523,7 +521,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>5.711538</c:v>
+                  <c:v>5.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.7692310000000004</c:v>
@@ -538,58 +536,58 @@
                   <c:v>6.6923079999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2836540000000003</c:v>
+                  <c:v>7.2692310000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.961538</c:v>
+                  <c:v>7.9720279999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8.8461540000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.679487</c:v>
+                  <c:v>9.7027970000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.745191999999999</c:v>
+                  <c:v>10.788462000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.923076999999999</c:v>
+                  <c:v>11.884615</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.205128</c:v>
+                  <c:v>13.211537999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14.487178999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.961537999999999</c:v>
+                  <c:v>15.944056</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.596153999999999</c:v>
+                  <c:v>17.480768999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.326923000000001</c:v>
+                  <c:v>19.353147</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.153846000000001</c:v>
+                  <c:v>21.173076999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.134615</c:v>
+                  <c:v>23.076923000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.064102999999999</c:v>
+                  <c:v>25.096153999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.167832000000001</c:v>
+                  <c:v>27.211538000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.743590000000001</c:v>
+                  <c:v>29.711538000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.923076999999999</c:v>
+                  <c:v>32.019230999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.615385000000003</c:v>
+                  <c:v>34.487178999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>37.211537999999997</c:v>
@@ -601,7 +599,7 @@
                   <c:v>42.692307999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45.734265999999998</c:v>
+                  <c:v>45.754438</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>48.75</c:v>
@@ -613,25 +611,25 @@
                   <c:v>55.227272999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58.741258999999999</c:v>
+                  <c:v>58.846153999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>62.255245000000002</c:v>
+                  <c:v>62.307692000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66.168638999999999</c:v>
+                  <c:v>66.057692000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>69.743589999999998</c:v>
+                  <c:v>69.807692000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>73.531469000000001</c:v>
+                  <c:v>73.557692000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>77.711538000000004</c:v>
+                  <c:v>77.573964000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>81.875</c:v>
+                  <c:v>81.799451000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>86.201922999999994</c:v>
@@ -646,7 +644,7 @@
                   <c:v>99.230768999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>102.980769</c:v>
+                  <c:v>102.85714299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,7 +1537,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Serie_2</c:v>
+                  <c:v>Serie_1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1728,13 +1726,13 @@
                   <c:v>11.235955000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.975031000000001</c:v>
+                  <c:v>11.235955000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.471910000000001</c:v>
+                  <c:v>11.235955000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.471910000000001</c:v>
+                  <c:v>17.977528</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22.471910000000001</c:v>
@@ -1746,28 +1744,28 @@
                   <c:v>22.471910000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.465668000000001</c:v>
+                  <c:v>29.962547000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.943820000000002</c:v>
+                  <c:v>40.858018000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.943820000000002</c:v>
+                  <c:v>47.191011000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62.421973000000001</c:v>
+                  <c:v>62.921348000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.409487999999996</c:v>
+                  <c:v>73.544432999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.887640000000005</c:v>
+                  <c:v>92.134831000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>109.862672</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>132.02247199999999</c:v>
+                  <c:v>130.33707899999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>157.303371</c:v>
@@ -1779,85 +1777,85 @@
                   <c:v>214.73158599999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>252.18476899999999</c:v>
+                  <c:v>253.319714</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>289.63795299999998</c:v>
+                  <c:v>290.09193099999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>332.08489400000002</c:v>
+                  <c:v>334.83146099999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>379.52559300000001</c:v>
+                  <c:v>379.77528100000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>429.46317099999999</c:v>
+                  <c:v>432.58427</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>491.88514400000003</c:v>
+                  <c:v>489.88763999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>546.06741599999998</c:v>
+                  <c:v>547.49744599999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>614.23221000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>689.13857700000005</c:v>
+                  <c:v>686.41470900000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>761.54806499999995</c:v>
+                  <c:v>762.17228499999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>838.95131100000003</c:v>
+                  <c:v>839.63227800000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>926.34207200000003</c:v>
+                  <c:v>925.09363299999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1028.714107</c:v>
+                  <c:v>1031.4606739999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1101.1235959999999</c:v>
+                  <c:v>1111.1111109999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1229.8263529999999</c:v>
+                  <c:v>1225.5834050000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1343.320849</c:v>
+                  <c:v>1342.696629</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1460.6741569999999</c:v>
+                  <c:v>1453.1835209999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1589.3769150000001</c:v>
+                  <c:v>1590.3197929999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1723.5955059999999</c:v>
+                  <c:v>1730.3370789999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1850.1872659999999</c:v>
+                  <c:v>1858.426966</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2056.1797750000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2159.1760300000001</c:v>
+                  <c:v>2162.1187799999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2316.6496419999999</c:v>
+                  <c:v>2318.3520600000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2494.3820219999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2667.4157300000002</c:v>
+                  <c:v>2674.157303</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2867.4157300000002</c:v>
+                  <c:v>2859.11841</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3052.4344569999998</c:v>
+                  <c:v>3054.4511670000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3258.426966</c:v>
@@ -1881,7 +1879,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Serie_3</c:v>
+                  <c:v>Serie_2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2074,145 +2072,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>2148.8764040000001</c:v>
+                  <c:v>2152.8089890000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2438.2022470000002</c:v>
+                  <c:v>2429.6100459999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2691.4433880000001</c:v>
+                  <c:v>2679.151061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2864.3042350000001</c:v>
+                  <c:v>2869.3820219999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2970.786517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2969.1011239999998</c:v>
+                  <c:v>2968.1647939999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2866.1899899999999</c:v>
+                  <c:v>2874.675886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2664.5264849999999</c:v>
+                  <c:v>2664.904164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2414.1252009999998</c:v>
+                  <c:v>2417.335474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2105.6179780000002</c:v>
+                  <c:v>2104.1879469999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1808.9887639999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1509.075194</c:v>
+                  <c:v>1515.0798339999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1291.1133809999999</c:v>
+                  <c:v>1269.6629210000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1093.632959</c:v>
+                  <c:v>1106.741573</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1019.662921</c:v>
+                  <c:v>1020.2247190000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1038.7016229999999</c:v>
+                  <c:v>1040.1284109999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1171.5355810000001</c:v>
+                  <c:v>1165.8955719999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1378.812199</c:v>
+                  <c:v>1370.786517</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1629.9625470000001</c:v>
+                  <c:v>1637.239165</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1943.8202249999999</c:v>
+                  <c:v>1938.4465070000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2245.9425719999999</c:v>
+                  <c:v>2242.9106470000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2536.516854</c:v>
+                  <c:v>2531.3945800000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2772.0706260000002</c:v>
+                  <c:v>2764.0449440000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2915.2196119999999</c:v>
+                  <c:v>2917.8910980000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2983.7702869999998</c:v>
+                  <c:v>2980.5924409999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2946.3171040000002</c:v>
+                  <c:v>2943.8202249999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2800.8171600000001</c:v>
+                  <c:v>2800.5617980000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2576.7790260000002</c:v>
+                  <c:v>2578.027466</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2311.7977529999998</c:v>
+                  <c:v>2307.1161050000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2014.044944</c:v>
+                  <c:v>2012.841091</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1699.126092</c:v>
+                  <c:v>1708.8866190000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1412.9213480000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1200.998752</c:v>
+                  <c:v>1203.8523270000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1061.365601</c:v>
+                  <c:v>1062.6003209999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1014.044944</c:v>
+                  <c:v>1015.730337</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1073.6579280000001</c:v>
+                  <c:v>1076.7790259999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1230.3370789999999</c:v>
+                  <c:v>1232.4068600000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1468.164794</c:v>
+                  <c:v>1461.996034</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1741.573034</c:v>
+                  <c:v>1736.2507390000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2057.9538729999999</c:v>
+                  <c:v>2053.3707869999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2350.2974220000001</c:v>
+                  <c:v>2358.5735220000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2627.7153560000002</c:v>
+                  <c:v>2629.213483</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2820.2247189999998</c:v>
+                  <c:v>2823.970037</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2950.5617980000002</c:v>
+                  <c:v>2953.6516849999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2980.3370789999999</c:v>
+                  <c:v>2978.54954</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2892.1348309999998</c:v>
+                  <c:v>2902.0866769999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2752.8089890000001</c:v>
+                  <c:v>2741.573034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,7 +2231,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Serie_4</c:v>
+                  <c:v>Serie_3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2423,49 +2421,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>1016.853933</c:v>
+                  <c:v>1015.321757</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1046.19226</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1076.154806</c:v>
+                  <c:v>1078.651685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1111.1111109999999</c:v>
+                  <c:v>1111.3380999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1143.5705370000001</c:v>
+                  <c:v>1141.981614</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1176.029963</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1205.9925089999999</c:v>
+                  <c:v>1207.3544429999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1241.573034</c:v>
+                  <c:v>1240.0408580000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1269.6629210000001</c:v>
+                  <c:v>1270.9113609999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1303.3707870000001</c:v>
+                  <c:v>1305.2434459999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1335.8302120000001</c:v>
+                  <c:v>1336.0572010000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1364.3659709999999</c:v>
+                  <c:v>1363.2958799999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1401.685393</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1430.7116100000001</c:v>
+                  <c:v>1432.0735440000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1466.2921349999999</c:v>
+                  <c:v>1464.759959</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1494.382022</c:v>
@@ -2477,16 +2475,16 @@
                   <c:v>1561.7977530000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1589.8876399999999</c:v>
+                  <c:v>1595.5056179999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1626.9662920000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1653.9325839999999</c:v>
+                  <c:v>1656.7926460000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1691.0112360000001</c:v>
+                  <c:v>1689.4790599999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1719.101124</c:v>
@@ -2498,19 +2496,19 @@
                   <c:v>1786.516854</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1814.6067419999999</c:v>
+                  <c:v>1816.138917</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1851.685393</c:v>
+                  <c:v>1848.8253319999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1880.149813</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1915.730337</c:v>
+                  <c:v>1914.198161</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1937.0786519999999</c:v>
+                  <c:v>1940.0749060000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1977.52809</c:v>
@@ -2519,49 +2517,49 @@
                   <c:v>2011.2359550000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2039.3258430000001</c:v>
+                  <c:v>2040.8580179999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2074.906367</c:v>
+                  <c:v>2073.544433</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2104.8689140000001</c:v>
+                  <c:v>2107.8651690000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2140.4494380000001</c:v>
+                  <c:v>2138.9172629999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2169.787765</c:v>
+                  <c:v>2169.5607759999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2204.7440700000002</c:v>
+                  <c:v>2202.2471909999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2235.9550559999998</c:v>
+                  <c:v>2234.7066169999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2267.1660419999998</c:v>
+                  <c:v>2267.790262</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2303.3707869999998</c:v>
+                  <c:v>2304.975923</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2325.842697</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2362.0474410000002</c:v>
+                  <c:v>2363.636364</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2394.5068660000002</c:v>
+                  <c:v>2394.2798769999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2429.4631709999999</c:v>
+                  <c:v>2426.9662920000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2459.425718</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2488.7640449999999</c:v>
+                  <c:v>2490.2962210000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,39 +2760,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7275925925925932E-2"/>
+          <c:y val="6.4675925925925928E-2"/>
+          <c:w val="0.62580810185185187"/>
+          <c:h val="0.79892685185185186"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -2807,7 +2785,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100*x+10</c:v>
+                  <c:v>f1(x)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3035,7 +3013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>x^3</c:v>
+                  <c:v>f2(x)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3263,7 +3241,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000sin(x)+5000</c:v>
+                  <c:v>f3(x)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3491,6 +3469,9 @@
               <c:f>'t4'!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster Serie_1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3512,6 +3493,156 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.68</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.84</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3521,6 +3652,147 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>14.234875000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.234875000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.234875000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.014234999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.352312999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.352312999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.352312999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.528632000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.587189000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.206218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.945869999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.933134000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.156583999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.950177999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112.380596</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133.807829</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161.112908</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>189.32384300000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220.640569</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>257.58346</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>294.661922</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>339.26453099999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>386.47686800000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>436.75186000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>493.69136200000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>555.16014199999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>621.15820099999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>694.27369799999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>768.68327399999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>850.53380800000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>939.50177900000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1032.02847</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1126.3345200000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1245.0041060000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1366.548043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1480.427046</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1608.540925</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1743.772242</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1869.9450019999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2079.5858950000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2192.1708189999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2354.5373669999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2530.0397739999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2711.1337060000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2881.5455010000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3099.355583</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3288.7154169999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3539,6 +3811,9 @@
               <c:f>'t4'!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster Serie_2</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3570,6 +3845,156 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.68</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.84</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3579,6 +4004,138 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
+                <c:pt idx="3">
+                  <c:v>2882.5622779999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2969.2656099999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2971.0218610000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2865.9549229999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2675.0327779999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2419.3099179999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2118.6239620000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1805.2669040000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1513.641756</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1275.3678950000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1101.8848029999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1019.087674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1038.434164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1169.2933399999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1388.9171329999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1656.5836300000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1964.4128109999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2269.8437260000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2550.754109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2777.094791</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2924.0806640000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2982.2064059999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2936.9395020000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2793.594306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2576.5124559999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2299.0776380000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1990.2679929999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1683.2740209999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1402.6827270000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1192.1708189999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1051.6725980000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1016.370107</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1089.7587980000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1259.3910639999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1496.851903</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1782.206406</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2092.5266900000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2393.3157980000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2650.811561</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2851.8836670000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2962.795212</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2977.800373</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2884.752258</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2721.2336890000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3597,6 +4154,9 @@
               <c:f>'t4'!$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster Serie_3</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3625,6 +4185,156 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.68</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.84</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3634,6 +4344,147 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1026.3345200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1057.6512459999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1088.9679719999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1118.731802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1148.7544479999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1181.4946620000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1214.2348750000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1245.5516009999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1276.8683269999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1308.961501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1338.0782919999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1366.548043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1405.6939500000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1433.451957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1466.1921709999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1498.932384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1531.5431900000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1562.839483</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1601.4234879999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1627.046263</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1658.362989</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1689.679715</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1722.4199289999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1753.1372919999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1783.629893</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1814.9466190000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1846.2633450000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1879.003559</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1911.743772</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1939.8252990000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1971.5302489999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2002.8469749999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2035.5871890000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2069.880298</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2102.4911029999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2135.2313170000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2167.7681750000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2196.9157770000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2227.7580069999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2257.483776</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2296.5599050000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2332.7402139999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2355.8718859999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2385.6357170000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2415.658363</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2448.3985769999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2477.7056729999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3761,10 +4612,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76188679201354104"/>
-          <c:y val="0.37499031847079445"/>
-          <c:w val="0.22332893038661855"/>
-          <c:h val="0.4568559082908708"/>
+          <c:x val="0.73542847222222218"/>
+          <c:y val="9.2768055555555562E-2"/>
+          <c:w val="0.24978726851851851"/>
+          <c:h val="0.73907824074074069"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3823,16 +4674,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>236646</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>492630</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>90159</xdr:rowOff>
+      <xdr:rowOff>108018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>556802</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161598</xdr:rowOff>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3905,16 +4756,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>483943</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>182807</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>227501</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>102211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>164855</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>139945</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>290559</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166711</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4243,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66A300D-F994-4939-801C-4D3C065367CC}">
   <dimension ref="D8:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
@@ -4278,7 +5129,7 @@
         <v>0.12</v>
       </c>
       <c r="G9">
-        <v>5.711538</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
@@ -4353,7 +5204,7 @@
         <v>1.32</v>
       </c>
       <c r="G14">
-        <v>7.2836540000000003</v>
+        <v>7.2692310000000004</v>
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.25">
@@ -4368,7 +5219,7 @@
         <v>1.56</v>
       </c>
       <c r="G15">
-        <v>7.961538</v>
+        <v>7.9720279999999999</v>
       </c>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.25">
@@ -4398,7 +5249,7 @@
         <v>2.04</v>
       </c>
       <c r="G17">
-        <v>9.679487</v>
+        <v>9.7027970000000003</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
@@ -4413,7 +5264,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="G18">
-        <v>10.745191999999999</v>
+        <v>10.788462000000001</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
@@ -4428,7 +5279,7 @@
         <v>2.52</v>
       </c>
       <c r="G19">
-        <v>11.923076999999999</v>
+        <v>11.884615</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
@@ -4443,7 +5294,7 @@
         <v>2.76</v>
       </c>
       <c r="G20">
-        <v>13.205128</v>
+        <v>13.211537999999999</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
@@ -4473,7 +5324,7 @@
         <v>3.24</v>
       </c>
       <c r="G22">
-        <v>15.961537999999999</v>
+        <v>15.944056</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
@@ -4488,7 +5339,7 @@
         <v>3.48</v>
       </c>
       <c r="G23">
-        <v>17.596153999999999</v>
+        <v>17.480768999999999</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
@@ -4503,7 +5354,7 @@
         <v>3.72</v>
       </c>
       <c r="G24">
-        <v>19.326923000000001</v>
+        <v>19.353147</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
@@ -4518,7 +5369,7 @@
         <v>3.96</v>
       </c>
       <c r="G25">
-        <v>21.153846000000001</v>
+        <v>21.173076999999999</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
@@ -4533,7 +5384,7 @@
         <v>4.2</v>
       </c>
       <c r="G26">
-        <v>23.134615</v>
+        <v>23.076923000000001</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
@@ -4548,7 +5399,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="G27">
-        <v>25.064102999999999</v>
+        <v>25.096153999999999</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
@@ -4563,7 +5414,7 @@
         <v>4.68</v>
       </c>
       <c r="G28">
-        <v>27.167832000000001</v>
+        <v>27.211538000000001</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
@@ -4578,7 +5429,7 @@
         <v>4.92</v>
       </c>
       <c r="G29">
-        <v>29.743590000000001</v>
+        <v>29.711538000000001</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
@@ -4586,7 +5437,7 @@
         <v>5.16</v>
       </c>
       <c r="G30">
-        <v>31.923076999999999</v>
+        <v>32.019230999999998</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
@@ -4594,7 +5445,7 @@
         <v>5.4</v>
       </c>
       <c r="G31">
-        <v>34.615385000000003</v>
+        <v>34.487178999999998</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
@@ -4626,7 +5477,7 @@
         <v>6.36</v>
       </c>
       <c r="G35">
-        <v>45.734265999999998</v>
+        <v>45.754438</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
@@ -4658,7 +5509,7 @@
         <v>7.32</v>
       </c>
       <c r="G39">
-        <v>58.741258999999999</v>
+        <v>58.846153999999999</v>
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.25">
@@ -4666,7 +5517,7 @@
         <v>7.56</v>
       </c>
       <c r="G40">
-        <v>62.255245000000002</v>
+        <v>62.307692000000003</v>
       </c>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.25">
@@ -4674,7 +5525,7 @@
         <v>7.8</v>
       </c>
       <c r="G41">
-        <v>66.168638999999999</v>
+        <v>66.057692000000003</v>
       </c>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.25">
@@ -4682,7 +5533,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="G42">
-        <v>69.743589999999998</v>
+        <v>69.807692000000003</v>
       </c>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.25">
@@ -4690,7 +5541,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="G43">
-        <v>73.531469000000001</v>
+        <v>73.557692000000003</v>
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
@@ -4698,7 +5549,7 @@
         <v>8.52</v>
       </c>
       <c r="G44">
-        <v>77.711538000000004</v>
+        <v>77.573964000000004</v>
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.25">
@@ -4706,7 +5557,7 @@
         <v>8.76</v>
       </c>
       <c r="G45">
-        <v>81.875</v>
+        <v>81.799451000000005</v>
       </c>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.25">
@@ -4746,7 +5597,7 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="G50">
-        <v>102.980769</v>
+        <v>102.85714299999999</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
@@ -4800,7 +5651,7 @@
   <dimension ref="D7:K57"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4813,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
         <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -4828,10 +5679,10 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
@@ -4857,10 +5708,10 @@
         <v>11.235955000000001</v>
       </c>
       <c r="J8">
-        <v>2148.8764040000001</v>
+        <v>2152.8089890000001</v>
       </c>
       <c r="K8">
-        <v>1016.853933</v>
+        <v>1015.321757</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
@@ -4886,7 +5737,7 @@
         <v>11.235955000000001</v>
       </c>
       <c r="J9">
-        <v>2438.2022470000002</v>
+        <v>2429.6100459999998</v>
       </c>
       <c r="K9">
         <v>1046.19226</v>
@@ -4912,13 +5763,13 @@
         <v>0.8</v>
       </c>
       <c r="I10">
-        <v>19.975031000000001</v>
+        <v>11.235955000000001</v>
       </c>
       <c r="J10">
-        <v>2691.4433880000001</v>
+        <v>2679.151061</v>
       </c>
       <c r="K10">
-        <v>1076.154806</v>
+        <v>1078.651685</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.25">
@@ -4941,13 +5792,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="I11">
-        <v>22.471910000000001</v>
+        <v>11.235955000000001</v>
       </c>
       <c r="J11">
-        <v>2864.3042350000001</v>
+        <v>2869.3820219999998</v>
       </c>
       <c r="K11">
-        <v>1111.1111109999999</v>
+        <v>1111.3380999999999</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
@@ -4970,13 +5821,13 @@
         <v>1.44</v>
       </c>
       <c r="I12">
-        <v>22.471910000000001</v>
+        <v>17.977528</v>
       </c>
       <c r="J12">
         <v>2970.786517</v>
       </c>
       <c r="K12">
-        <v>1143.5705370000001</v>
+        <v>1141.981614</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
@@ -5002,7 +5853,7 @@
         <v>22.471910000000001</v>
       </c>
       <c r="J13">
-        <v>2969.1011239999998</v>
+        <v>2968.1647939999998</v>
       </c>
       <c r="K13">
         <v>1176.029963</v>
@@ -5031,10 +5882,10 @@
         <v>22.471910000000001</v>
       </c>
       <c r="J14">
-        <v>2866.1899899999999</v>
+        <v>2874.675886</v>
       </c>
       <c r="K14">
-        <v>1205.9925089999999</v>
+        <v>1207.3544429999999</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.25">
@@ -5060,10 +5911,10 @@
         <v>22.471910000000001</v>
       </c>
       <c r="J15">
-        <v>2664.5264849999999</v>
+        <v>2664.904164</v>
       </c>
       <c r="K15">
-        <v>1241.573034</v>
+        <v>1240.0408580000001</v>
       </c>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.25">
@@ -5086,13 +5937,13 @@
         <v>2.72</v>
       </c>
       <c r="I16">
-        <v>27.465668000000001</v>
+        <v>29.962547000000001</v>
       </c>
       <c r="J16">
-        <v>2414.1252009999998</v>
+        <v>2417.335474</v>
       </c>
       <c r="K16">
-        <v>1269.6629210000001</v>
+        <v>1270.9113609999999</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
@@ -5115,13 +5966,13 @@
         <v>3.04</v>
       </c>
       <c r="I17">
-        <v>44.943820000000002</v>
+        <v>40.858018000000001</v>
       </c>
       <c r="J17">
-        <v>2105.6179780000002</v>
+        <v>2104.1879469999999</v>
       </c>
       <c r="K17">
-        <v>1303.3707870000001</v>
+        <v>1305.2434459999999</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
@@ -5144,13 +5995,13 @@
         <v>3.36</v>
       </c>
       <c r="I18">
-        <v>44.943820000000002</v>
+        <v>47.191011000000003</v>
       </c>
       <c r="J18">
         <v>1808.9887639999999</v>
       </c>
       <c r="K18">
-        <v>1335.8302120000001</v>
+        <v>1336.0572010000001</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
@@ -5173,13 +6024,13 @@
         <v>3.68</v>
       </c>
       <c r="I19">
-        <v>62.421973000000001</v>
+        <v>62.921348000000002</v>
       </c>
       <c r="J19">
-        <v>1509.075194</v>
+        <v>1515.0798339999999</v>
       </c>
       <c r="K19">
-        <v>1364.3659709999999</v>
+        <v>1363.2958799999999</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
@@ -5202,10 +6053,10 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <v>72.409487999999996</v>
+        <v>73.544432999999998</v>
       </c>
       <c r="J20">
-        <v>1291.1133809999999</v>
+        <v>1269.6629210000001</v>
       </c>
       <c r="K20">
         <v>1401.685393</v>
@@ -5231,13 +6082,13 @@
         <v>4.32</v>
       </c>
       <c r="I21">
-        <v>89.887640000000005</v>
+        <v>92.134831000000005</v>
       </c>
       <c r="J21">
-        <v>1093.632959</v>
+        <v>1106.741573</v>
       </c>
       <c r="K21">
-        <v>1430.7116100000001</v>
+        <v>1432.0735440000001</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
@@ -5263,10 +6114,10 @@
         <v>109.862672</v>
       </c>
       <c r="J22">
-        <v>1019.662921</v>
+        <v>1020.2247190000001</v>
       </c>
       <c r="K22">
-        <v>1466.2921349999999</v>
+        <v>1464.759959</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
@@ -5289,10 +6140,10 @@
         <v>4.96</v>
       </c>
       <c r="I23">
-        <v>132.02247199999999</v>
+        <v>130.33707899999999</v>
       </c>
       <c r="J23">
-        <v>1038.7016229999999</v>
+        <v>1040.1284109999999</v>
       </c>
       <c r="K23">
         <v>1494.382022</v>
@@ -5321,7 +6172,7 @@
         <v>157.303371</v>
       </c>
       <c r="J24">
-        <v>1171.5355810000001</v>
+        <v>1165.8955719999999</v>
       </c>
       <c r="K24">
         <v>1528.089888</v>
@@ -5350,7 +6201,7 @@
         <v>187.265918</v>
       </c>
       <c r="J25">
-        <v>1378.812199</v>
+        <v>1370.786517</v>
       </c>
       <c r="K25">
         <v>1561.7977530000001</v>
@@ -5379,10 +6230,10 @@
         <v>214.73158599999999</v>
       </c>
       <c r="J26">
-        <v>1629.9625470000001</v>
+        <v>1637.239165</v>
       </c>
       <c r="K26">
-        <v>1589.8876399999999</v>
+        <v>1595.5056179999999</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.25">
@@ -5405,10 +6256,10 @@
         <v>6.24</v>
       </c>
       <c r="I27">
-        <v>252.18476899999999</v>
+        <v>253.319714</v>
       </c>
       <c r="J27">
-        <v>1943.8202249999999</v>
+        <v>1938.4465070000001</v>
       </c>
       <c r="K27">
         <v>1626.9662920000001</v>
@@ -5434,13 +6285,13 @@
         <v>6.56</v>
       </c>
       <c r="I28">
-        <v>289.63795299999998</v>
+        <v>290.09193099999999</v>
       </c>
       <c r="J28">
-        <v>2245.9425719999999</v>
+        <v>2242.9106470000002</v>
       </c>
       <c r="K28">
-        <v>1653.9325839999999</v>
+        <v>1656.7926460000001</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.25">
@@ -5463,13 +6314,13 @@
         <v>6.88</v>
       </c>
       <c r="I29">
-        <v>332.08489400000002</v>
+        <v>334.83146099999999</v>
       </c>
       <c r="J29">
-        <v>2536.516854</v>
+        <v>2531.3945800000001</v>
       </c>
       <c r="K29">
-        <v>1691.0112360000001</v>
+        <v>1689.4790599999999</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.25">
@@ -5492,10 +6343,10 @@
         <v>7.2</v>
       </c>
       <c r="I30">
-        <v>379.52559300000001</v>
+        <v>379.77528100000001</v>
       </c>
       <c r="J30">
-        <v>2772.0706260000002</v>
+        <v>2764.0449440000002</v>
       </c>
       <c r="K30">
         <v>1719.101124</v>
@@ -5521,10 +6372,10 @@
         <v>7.52</v>
       </c>
       <c r="I31">
-        <v>429.46317099999999</v>
+        <v>432.58427</v>
       </c>
       <c r="J31">
-        <v>2915.2196119999999</v>
+        <v>2917.8910980000001</v>
       </c>
       <c r="K31">
         <v>1752.8089890000001</v>
@@ -5550,10 +6401,10 @@
         <v>7.84</v>
       </c>
       <c r="I32">
-        <v>491.88514400000003</v>
+        <v>489.88763999999998</v>
       </c>
       <c r="J32">
-        <v>2983.7702869999998</v>
+        <v>2980.5924409999998</v>
       </c>
       <c r="K32">
         <v>1786.516854</v>
@@ -5579,13 +6430,13 @@
         <v>8.16</v>
       </c>
       <c r="I33">
-        <v>546.06741599999998</v>
+        <v>547.49744599999997</v>
       </c>
       <c r="J33">
-        <v>2946.3171040000002</v>
+        <v>2943.8202249999999</v>
       </c>
       <c r="K33">
-        <v>1814.6067419999999</v>
+        <v>1816.138917</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
@@ -5611,10 +6462,10 @@
         <v>614.23221000000001</v>
       </c>
       <c r="J34">
-        <v>2800.8171600000001</v>
+        <v>2800.5617980000002</v>
       </c>
       <c r="K34">
-        <v>1851.685393</v>
+        <v>1848.8253319999999</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
@@ -5637,10 +6488,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I35">
-        <v>689.13857700000005</v>
+        <v>686.41470900000002</v>
       </c>
       <c r="J35">
-        <v>2576.7790260000002</v>
+        <v>2578.027466</v>
       </c>
       <c r="K35">
         <v>1880.149813</v>
@@ -5666,13 +6517,13 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="I36">
-        <v>761.54806499999995</v>
+        <v>762.17228499999999</v>
       </c>
       <c r="J36">
-        <v>2311.7977529999998</v>
+        <v>2307.1161050000001</v>
       </c>
       <c r="K36">
-        <v>1915.730337</v>
+        <v>1914.198161</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
@@ -5695,13 +6546,13 @@
         <v>9.44</v>
       </c>
       <c r="I37">
-        <v>838.95131100000003</v>
+        <v>839.63227800000004</v>
       </c>
       <c r="J37">
-        <v>2014.044944</v>
+        <v>2012.841091</v>
       </c>
       <c r="K37">
-        <v>1937.0786519999999</v>
+        <v>1940.0749060000001</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
@@ -5724,10 +6575,10 @@
         <v>9.76</v>
       </c>
       <c r="I38">
-        <v>926.34207200000003</v>
+        <v>925.09363299999995</v>
       </c>
       <c r="J38">
-        <v>1699.126092</v>
+        <v>1708.8866190000001</v>
       </c>
       <c r="K38">
         <v>1977.52809</v>
@@ -5738,7 +6589,7 @@
         <v>10.08</v>
       </c>
       <c r="I39">
-        <v>1028.714107</v>
+        <v>1031.4606739999999</v>
       </c>
       <c r="J39">
         <v>1412.9213480000001</v>
@@ -5752,13 +6603,13 @@
         <v>10.4</v>
       </c>
       <c r="I40">
-        <v>1101.1235959999999</v>
+        <v>1111.1111109999999</v>
       </c>
       <c r="J40">
-        <v>1200.998752</v>
+        <v>1203.8523270000001</v>
       </c>
       <c r="K40">
-        <v>2039.3258430000001</v>
+        <v>2040.8580179999999</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.25">
@@ -5766,13 +6617,13 @@
         <v>10.72</v>
       </c>
       <c r="I41">
-        <v>1229.8263529999999</v>
+        <v>1225.5834050000001</v>
       </c>
       <c r="J41">
-        <v>1061.365601</v>
+        <v>1062.6003209999999</v>
       </c>
       <c r="K41">
-        <v>2074.906367</v>
+        <v>2073.544433</v>
       </c>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.25">
@@ -5780,13 +6631,13 @@
         <v>11.04</v>
       </c>
       <c r="I42">
-        <v>1343.320849</v>
+        <v>1342.696629</v>
       </c>
       <c r="J42">
-        <v>1014.044944</v>
+        <v>1015.730337</v>
       </c>
       <c r="K42">
-        <v>2104.8689140000001</v>
+        <v>2107.8651690000002</v>
       </c>
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.25">
@@ -5794,13 +6645,13 @@
         <v>11.36</v>
       </c>
       <c r="I43">
-        <v>1460.6741569999999</v>
+        <v>1453.1835209999999</v>
       </c>
       <c r="J43">
-        <v>1073.6579280000001</v>
+        <v>1076.7790259999999</v>
       </c>
       <c r="K43">
-        <v>2140.4494380000001</v>
+        <v>2138.9172629999998</v>
       </c>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.25">
@@ -5808,13 +6659,13 @@
         <v>11.68</v>
       </c>
       <c r="I44">
-        <v>1589.3769150000001</v>
+        <v>1590.3197929999999</v>
       </c>
       <c r="J44">
-        <v>1230.3370789999999</v>
+        <v>1232.4068600000001</v>
       </c>
       <c r="K44">
-        <v>2169.787765</v>
+        <v>2169.5607759999998</v>
       </c>
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.25">
@@ -5822,13 +6673,13 @@
         <v>12</v>
       </c>
       <c r="I45">
-        <v>1723.5955059999999</v>
+        <v>1730.3370789999999</v>
       </c>
       <c r="J45">
-        <v>1468.164794</v>
+        <v>1461.996034</v>
       </c>
       <c r="K45">
-        <v>2204.7440700000002</v>
+        <v>2202.2471909999999</v>
       </c>
     </row>
     <row r="46" spans="4:11" x14ac:dyDescent="0.25">
@@ -5836,13 +6687,13 @@
         <v>12.32</v>
       </c>
       <c r="I46">
-        <v>1850.1872659999999</v>
+        <v>1858.426966</v>
       </c>
       <c r="J46">
-        <v>1741.573034</v>
+        <v>1736.2507390000001</v>
       </c>
       <c r="K46">
-        <v>2235.9550559999998</v>
+        <v>2234.7066169999998</v>
       </c>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.25">
@@ -5853,10 +6704,10 @@
         <v>2056.1797750000001</v>
       </c>
       <c r="J47">
-        <v>2057.9538729999999</v>
+        <v>2053.3707869999998</v>
       </c>
       <c r="K47">
-        <v>2267.1660419999998</v>
+        <v>2267.790262</v>
       </c>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.25">
@@ -5864,13 +6715,13 @@
         <v>12.96</v>
       </c>
       <c r="I48">
-        <v>2159.1760300000001</v>
+        <v>2162.1187799999998</v>
       </c>
       <c r="J48">
-        <v>2350.2974220000001</v>
+        <v>2358.5735220000001</v>
       </c>
       <c r="K48">
-        <v>2303.3707869999998</v>
+        <v>2304.975923</v>
       </c>
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.25">
@@ -5878,10 +6729,10 @@
         <v>13.28</v>
       </c>
       <c r="I49">
-        <v>2316.6496419999999</v>
+        <v>2318.3520600000002</v>
       </c>
       <c r="J49">
-        <v>2627.7153560000002</v>
+        <v>2629.213483</v>
       </c>
       <c r="K49">
         <v>2325.842697</v>
@@ -5895,10 +6746,10 @@
         <v>2494.3820219999998</v>
       </c>
       <c r="J50">
-        <v>2820.2247189999998</v>
+        <v>2823.970037</v>
       </c>
       <c r="K50">
-        <v>2362.0474410000002</v>
+        <v>2363.636364</v>
       </c>
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.25">
@@ -5906,13 +6757,13 @@
         <v>13.92</v>
       </c>
       <c r="I51">
-        <v>2667.4157300000002</v>
+        <v>2674.157303</v>
       </c>
       <c r="J51">
-        <v>2950.5617980000002</v>
+        <v>2953.6516849999998</v>
       </c>
       <c r="K51">
-        <v>2394.5068660000002</v>
+        <v>2394.2798769999999</v>
       </c>
     </row>
     <row r="52" spans="8:11" x14ac:dyDescent="0.25">
@@ -5920,13 +6771,13 @@
         <v>14.24</v>
       </c>
       <c r="I52">
-        <v>2867.4157300000002</v>
+        <v>2859.11841</v>
       </c>
       <c r="J52">
-        <v>2980.3370789999999</v>
+        <v>2978.54954</v>
       </c>
       <c r="K52">
-        <v>2429.4631709999999</v>
+        <v>2426.9662920000001</v>
       </c>
     </row>
     <row r="53" spans="8:11" x14ac:dyDescent="0.25">
@@ -5934,10 +6785,10 @@
         <v>14.56</v>
       </c>
       <c r="I53">
-        <v>3052.4344569999998</v>
+        <v>3054.4511670000002</v>
       </c>
       <c r="J53">
-        <v>2892.1348309999998</v>
+        <v>2902.0866769999998</v>
       </c>
       <c r="K53">
         <v>2459.425718</v>
@@ -5951,25 +6802,52 @@
         <v>3258.426966</v>
       </c>
       <c r="J54">
-        <v>2752.8089890000001</v>
+        <v>2741.573034</v>
       </c>
       <c r="K54">
-        <v>2488.7640449999999</v>
+        <v>2490.2962210000001</v>
       </c>
     </row>
     <row r="55" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H55">
         <v>15.2</v>
       </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H56">
         <v>15.52</v>
       </c>
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H57">
         <v>15.84</v>
+      </c>
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5980,10 +6858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B47125-AE39-45E3-AC9E-A75229C1CC24}">
-  <dimension ref="D7:G38"/>
+  <dimension ref="D7:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5991,21 +6869,33 @@
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>0</v>
       </c>
@@ -6017,8 +6907,17 @@
         <f>D8^3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0.16</v>
+      </c>
+      <c r="I8">
+        <v>14.234875000000001</v>
+      </c>
+      <c r="K8">
+        <v>1026.3345200000001</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>0.5</v>
       </c>
@@ -6030,8 +6929,17 @@
         <f>D9^3</f>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0.48</v>
+      </c>
+      <c r="I9">
+        <v>14.234875000000001</v>
+      </c>
+      <c r="K9">
+        <v>1057.6512459999999</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>1</v>
       </c>
@@ -6044,11 +6952,20 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G9:G38" si="2">1000*SIN(D10)+2000</f>
+        <f t="shared" ref="G10:G38" si="2">1000*SIN(D10)+2000</f>
         <v>2841.4709848078965</v>
       </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <v>14.234875000000001</v>
+      </c>
+      <c r="K10">
+        <v>1088.9679719999999</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>1.5</v>
       </c>
@@ -6064,8 +6981,20 @@
         <f t="shared" si="2"/>
         <v>2997.4949866040542</v>
       </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I11">
+        <v>16.014234999999999</v>
+      </c>
+      <c r="J11">
+        <v>2882.5622779999999</v>
+      </c>
+      <c r="K11">
+        <v>1118.731802</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>2</v>
       </c>
@@ -6081,8 +7010,20 @@
         <f t="shared" si="2"/>
         <v>2909.2974268256817</v>
       </c>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1.44</v>
+      </c>
+      <c r="I12">
+        <v>21.352312999999999</v>
+      </c>
+      <c r="J12">
+        <v>2969.2656099999999</v>
+      </c>
+      <c r="K12">
+        <v>1148.7544479999999</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>2.5</v>
       </c>
@@ -6098,8 +7039,20 @@
         <f t="shared" si="2"/>
         <v>2598.4721441039565</v>
       </c>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1.76</v>
+      </c>
+      <c r="I13">
+        <v>21.352312999999999</v>
+      </c>
+      <c r="J13">
+        <v>2971.0218610000002</v>
+      </c>
+      <c r="K13">
+        <v>1181.4946620000001</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>3</v>
       </c>
@@ -6115,8 +7068,20 @@
         <f t="shared" si="2"/>
         <v>2141.1200080598674</v>
       </c>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>2.08</v>
+      </c>
+      <c r="I14">
+        <v>21.352312999999999</v>
+      </c>
+      <c r="J14">
+        <v>2865.9549229999998</v>
+      </c>
+      <c r="K14">
+        <v>1214.2348750000001</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>3.5</v>
       </c>
@@ -6132,8 +7097,20 @@
         <f t="shared" si="2"/>
         <v>1649.2167723103803</v>
       </c>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>2.4</v>
+      </c>
+      <c r="I15">
+        <v>26.528632000000002</v>
+      </c>
+      <c r="J15">
+        <v>2675.0327779999998</v>
+      </c>
+      <c r="K15">
+        <v>1245.5516009999999</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>4</v>
       </c>
@@ -6149,8 +7126,20 @@
         <f t="shared" si="2"/>
         <v>1243.1975046920718</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>2.72</v>
+      </c>
+      <c r="I16">
+        <v>35.587189000000002</v>
+      </c>
+      <c r="J16">
+        <v>2419.3099179999999</v>
+      </c>
+      <c r="K16">
+        <v>1276.8683269999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>4.5</v>
       </c>
@@ -6166,8 +7155,20 @@
         <f t="shared" si="2"/>
         <v>1022.469882334903</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>3.04</v>
+      </c>
+      <c r="I17">
+        <v>41.206218</v>
+      </c>
+      <c r="J17">
+        <v>2118.6239620000001</v>
+      </c>
+      <c r="K17">
+        <v>1308.961501</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>5</v>
       </c>
@@ -6183,8 +7184,20 @@
         <f t="shared" si="2"/>
         <v>1041.0757253368615</v>
       </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>3.36</v>
+      </c>
+      <c r="I18">
+        <v>50.945869999999999</v>
+      </c>
+      <c r="J18">
+        <v>1805.2669040000001</v>
+      </c>
+      <c r="K18">
+        <v>1338.0782919999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>5.5</v>
       </c>
@@ -6200,8 +7213,20 @@
         <f t="shared" si="2"/>
         <v>1294.4596744296082</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>3.68</v>
+      </c>
+      <c r="I19">
+        <v>62.933134000000003</v>
+      </c>
+      <c r="J19">
+        <v>1513.641756</v>
+      </c>
+      <c r="K19">
+        <v>1366.548043</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>6</v>
       </c>
@@ -6217,8 +7242,20 @@
         <f t="shared" si="2"/>
         <v>1720.5845018010741</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>76.156583999999995</v>
+      </c>
+      <c r="J20">
+        <v>1275.3678950000001</v>
+      </c>
+      <c r="K20">
+        <v>1405.6939500000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>6.5</v>
       </c>
@@ -6234,8 +7271,20 @@
         <f t="shared" si="2"/>
         <v>2215.1199880878157</v>
       </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>4.32</v>
+      </c>
+      <c r="I21">
+        <v>93.950177999999994</v>
+      </c>
+      <c r="J21">
+        <v>1101.8848029999999</v>
+      </c>
+      <c r="K21">
+        <v>1433.451957</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>7</v>
       </c>
@@ -6251,8 +7300,20 @@
         <f t="shared" si="2"/>
         <v>2656.9865987187891</v>
       </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I22">
+        <v>112.380596</v>
+      </c>
+      <c r="J22">
+        <v>1019.087674</v>
+      </c>
+      <c r="K22">
+        <v>1466.1921709999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>7.5</v>
       </c>
@@ -6268,8 +7329,20 @@
         <f t="shared" si="2"/>
         <v>2937.999976774739</v>
       </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>4.96</v>
+      </c>
+      <c r="I23">
+        <v>133.807829</v>
+      </c>
+      <c r="J23">
+        <v>1038.434164</v>
+      </c>
+      <c r="K23">
+        <v>1498.932384</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>8</v>
       </c>
@@ -6285,8 +7358,20 @@
         <f t="shared" si="2"/>
         <v>2989.358246623382</v>
       </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>5.28</v>
+      </c>
+      <c r="I24">
+        <v>161.112908</v>
+      </c>
+      <c r="J24">
+        <v>1169.2933399999999</v>
+      </c>
+      <c r="K24">
+        <v>1531.5431900000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>8.5</v>
       </c>
@@ -6302,8 +7387,20 @@
         <f t="shared" si="2"/>
         <v>2798.4871126234902</v>
       </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>5.6</v>
+      </c>
+      <c r="I25">
+        <v>189.32384300000001</v>
+      </c>
+      <c r="J25">
+        <v>1388.9171329999999</v>
+      </c>
+      <c r="K25">
+        <v>1562.839483</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>9</v>
       </c>
@@ -6319,8 +7416,20 @@
         <f t="shared" si="2"/>
         <v>2412.1184852417564</v>
       </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>5.92</v>
+      </c>
+      <c r="I26">
+        <v>220.640569</v>
+      </c>
+      <c r="J26">
+        <v>1656.5836300000001</v>
+      </c>
+      <c r="K26">
+        <v>1601.4234879999999</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>9.5</v>
       </c>
@@ -6336,8 +7445,20 @@
         <f t="shared" si="2"/>
         <v>1924.8488795381907</v>
       </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>6.24</v>
+      </c>
+      <c r="I27">
+        <v>257.58346</v>
+      </c>
+      <c r="J27">
+        <v>1964.4128109999999</v>
+      </c>
+      <c r="K27">
+        <v>1627.046263</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>10</v>
       </c>
@@ -6353,8 +7474,20 @@
         <f t="shared" si="2"/>
         <v>1455.9788891106302</v>
       </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>6.56</v>
+      </c>
+      <c r="I28">
+        <v>294.661922</v>
+      </c>
+      <c r="J28">
+        <v>2269.8437260000001</v>
+      </c>
+      <c r="K28">
+        <v>1658.362989</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>10.5</v>
       </c>
@@ -6370,8 +7503,20 @@
         <f t="shared" si="2"/>
         <v>1120.3042400283298</v>
       </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>6.88</v>
+      </c>
+      <c r="I29">
+        <v>339.26453099999998</v>
+      </c>
+      <c r="J29">
+        <v>2550.754109</v>
+      </c>
+      <c r="K29">
+        <v>1689.679715</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>11</v>
       </c>
@@ -6387,8 +7532,20 @@
         <f t="shared" si="2"/>
         <v>1000.0097934492966</v>
       </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>7.2</v>
+      </c>
+      <c r="I30">
+        <v>386.47686800000002</v>
+      </c>
+      <c r="J30">
+        <v>2777.094791</v>
+      </c>
+      <c r="K30">
+        <v>1722.4199289999999</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>11.5</v>
       </c>
@@ -6404,8 +7561,20 @@
         <f t="shared" si="2"/>
         <v>1124.5478253115716</v>
       </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>7.52</v>
+      </c>
+      <c r="I31">
+        <v>436.75186000000002</v>
+      </c>
+      <c r="J31">
+        <v>2924.0806640000001</v>
+      </c>
+      <c r="K31">
+        <v>1753.1372919999999</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>12</v>
       </c>
@@ -6421,8 +7590,20 @@
         <f t="shared" si="2"/>
         <v>1463.427081999565</v>
       </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>7.84</v>
+      </c>
+      <c r="I32">
+        <v>493.69136200000003</v>
+      </c>
+      <c r="J32">
+        <v>2982.2064059999998</v>
+      </c>
+      <c r="K32">
+        <v>1783.629893</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>12.5</v>
       </c>
@@ -6438,8 +7619,20 @@
         <f t="shared" si="2"/>
         <v>1933.6781026487993</v>
       </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>8.16</v>
+      </c>
+      <c r="I33">
+        <v>555.16014199999995</v>
+      </c>
+      <c r="J33">
+        <v>2936.9395020000002</v>
+      </c>
+      <c r="K33">
+        <v>1814.9466190000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>13</v>
       </c>
@@ -6455,8 +7648,20 @@
         <f t="shared" si="2"/>
         <v>2420.1670368266409</v>
       </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>8.48</v>
+      </c>
+      <c r="I34">
+        <v>621.15820099999996</v>
+      </c>
+      <c r="J34">
+        <v>2793.594306</v>
+      </c>
+      <c r="K34">
+        <v>1846.2633450000001</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>13.5</v>
       </c>
@@ -6472,8 +7677,20 @@
         <f t="shared" si="2"/>
         <v>2803.784426551621</v>
       </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I35">
+        <v>694.27369799999997</v>
+      </c>
+      <c r="J35">
+        <v>2576.5124559999999</v>
+      </c>
+      <c r="K35">
+        <v>1879.003559</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>14</v>
       </c>
@@ -6489,8 +7706,20 @@
         <f t="shared" si="2"/>
         <v>2990.6073556948704</v>
       </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I36">
+        <v>768.68327399999998</v>
+      </c>
+      <c r="J36">
+        <v>2299.0776380000002</v>
+      </c>
+      <c r="K36">
+        <v>1911.743772</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>14.5</v>
       </c>
@@ -6506,8 +7735,20 @@
         <f t="shared" si="2"/>
         <v>2934.8950555246829</v>
       </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>9.44</v>
+      </c>
+      <c r="I37">
+        <v>850.53380800000002</v>
+      </c>
+      <c r="J37">
+        <v>1990.2679929999999</v>
+      </c>
+      <c r="K37">
+        <v>1939.8252990000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>15</v>
       </c>
@@ -6522,6 +7763,257 @@
       <c r="G38">
         <f t="shared" si="2"/>
         <v>2650.287840157117</v>
+      </c>
+      <c r="H38">
+        <v>9.76</v>
+      </c>
+      <c r="I38">
+        <v>939.50177900000006</v>
+      </c>
+      <c r="J38">
+        <v>1683.2740209999999</v>
+      </c>
+      <c r="K38">
+        <v>1971.5302489999999</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>10.08</v>
+      </c>
+      <c r="I39">
+        <v>1032.02847</v>
+      </c>
+      <c r="J39">
+        <v>1402.6827270000001</v>
+      </c>
+      <c r="K39">
+        <v>2002.8469749999999</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>10.4</v>
+      </c>
+      <c r="I40">
+        <v>1126.3345200000001</v>
+      </c>
+      <c r="J40">
+        <v>1192.1708189999999</v>
+      </c>
+      <c r="K40">
+        <v>2035.5871890000001</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>10.72</v>
+      </c>
+      <c r="I41">
+        <v>1245.0041060000001</v>
+      </c>
+      <c r="J41">
+        <v>1051.6725980000001</v>
+      </c>
+      <c r="K41">
+        <v>2069.880298</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>11.04</v>
+      </c>
+      <c r="I42">
+        <v>1366.548043</v>
+      </c>
+      <c r="J42">
+        <v>1016.370107</v>
+      </c>
+      <c r="K42">
+        <v>2102.4911029999998</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>11.36</v>
+      </c>
+      <c r="I43">
+        <v>1480.427046</v>
+      </c>
+      <c r="J43">
+        <v>1089.7587980000001</v>
+      </c>
+      <c r="K43">
+        <v>2135.2313170000002</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>11.68</v>
+      </c>
+      <c r="I44">
+        <v>1608.540925</v>
+      </c>
+      <c r="J44">
+        <v>1259.3910639999999</v>
+      </c>
+      <c r="K44">
+        <v>2167.7681750000002</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="I45">
+        <v>1743.772242</v>
+      </c>
+      <c r="J45">
+        <v>1496.851903</v>
+      </c>
+      <c r="K45">
+        <v>2196.9157770000002</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>12.32</v>
+      </c>
+      <c r="I46">
+        <v>1869.9450019999999</v>
+      </c>
+      <c r="J46">
+        <v>1782.206406</v>
+      </c>
+      <c r="K46">
+        <v>2227.7580069999999</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>12.64</v>
+      </c>
+      <c r="I47">
+        <v>2079.5858950000002</v>
+      </c>
+      <c r="J47">
+        <v>2092.5266900000001</v>
+      </c>
+      <c r="K47">
+        <v>2257.483776</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>12.96</v>
+      </c>
+      <c r="I48">
+        <v>2192.1708189999999</v>
+      </c>
+      <c r="J48">
+        <v>2393.3157980000001</v>
+      </c>
+      <c r="K48">
+        <v>2296.5599050000001</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>13.28</v>
+      </c>
+      <c r="I49">
+        <v>2354.5373669999999</v>
+      </c>
+      <c r="J49">
+        <v>2650.811561</v>
+      </c>
+      <c r="K49">
+        <v>2332.7402139999999</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>13.6</v>
+      </c>
+      <c r="I50">
+        <v>2530.0397739999999</v>
+      </c>
+      <c r="J50">
+        <v>2851.8836670000001</v>
+      </c>
+      <c r="K50">
+        <v>2355.8718859999999</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>13.92</v>
+      </c>
+      <c r="I51">
+        <v>2711.1337060000001</v>
+      </c>
+      <c r="J51">
+        <v>2962.795212</v>
+      </c>
+      <c r="K51">
+        <v>2385.6357170000001</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>14.24</v>
+      </c>
+      <c r="I52">
+        <v>2881.5455010000001</v>
+      </c>
+      <c r="J52">
+        <v>2977.800373</v>
+      </c>
+      <c r="K52">
+        <v>2415.658363</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>14.56</v>
+      </c>
+      <c r="I53">
+        <v>3099.355583</v>
+      </c>
+      <c r="J53">
+        <v>2884.752258</v>
+      </c>
+      <c r="K53">
+        <v>2448.3985769999999</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>14.88</v>
+      </c>
+      <c r="I54">
+        <v>3288.7154169999999</v>
+      </c>
+      <c r="J54">
+        <v>2721.2336890000001</v>
+      </c>
+      <c r="K54">
+        <v>2477.7056729999999</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>15.84</v>
       </c>
     </row>
   </sheetData>
